--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Efna5-Ephb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Efna5-Ephb1.xlsx
@@ -534,16 +534,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.4223226666666666</v>
+        <v>0.3227736666666667</v>
       </c>
       <c r="H2">
-        <v>1.266968</v>
+        <v>0.968321</v>
       </c>
       <c r="I2">
-        <v>0.1676547342089268</v>
+        <v>0.1416094457286952</v>
       </c>
       <c r="J2">
-        <v>0.1676547342089269</v>
+        <v>0.1416094457286952</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.814284333333333</v>
+        <v>4.066173333333333</v>
       </c>
       <c r="N2">
-        <v>8.442852999999999</v>
+        <v>12.19852</v>
       </c>
       <c r="O2">
-        <v>0.7633363087964763</v>
+        <v>0.8070107842953054</v>
       </c>
       <c r="P2">
-        <v>0.7633363087964762</v>
+        <v>0.8070107842953055</v>
       </c>
       <c r="Q2">
-        <v>1.188536064411555</v>
+        <v>1.312453676102222</v>
       </c>
       <c r="R2">
-        <v>10.696824579704</v>
+        <v>11.81208308492</v>
       </c>
       <c r="S2">
-        <v>0.1279769459632965</v>
+        <v>0.1142803498611378</v>
       </c>
       <c r="T2">
-        <v>0.1279769459632965</v>
+        <v>0.1142803498611378</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.4223226666666666</v>
+        <v>0.3227736666666667</v>
       </c>
       <c r="H3">
-        <v>1.266968</v>
+        <v>0.968321</v>
       </c>
       <c r="I3">
-        <v>0.1676547342089268</v>
+        <v>0.1416094457286952</v>
       </c>
       <c r="J3">
-        <v>0.1676547342089269</v>
+        <v>0.1416094457286952</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +620,22 @@
         <v>0.5442279999999999</v>
       </c>
       <c r="O3">
-        <v>0.04920481176963387</v>
+        <v>0.03600419273120554</v>
       </c>
       <c r="P3">
-        <v>0.04920481176963386</v>
+        <v>0.03600419273120554</v>
       </c>
       <c r="Q3">
-        <v>0.07661327341155554</v>
+        <v>0.05855415568755555</v>
       </c>
       <c r="R3">
-        <v>0.6895194607039998</v>
+        <v>0.5269874011879999</v>
       </c>
       <c r="S3">
-        <v>0.008249419639038242</v>
+        <v>0.005098533776575132</v>
       </c>
       <c r="T3">
-        <v>0.008249419639038242</v>
+        <v>0.005098533776575132</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.4223226666666666</v>
+        <v>0.3227736666666667</v>
       </c>
       <c r="H4">
-        <v>1.266968</v>
+        <v>0.968321</v>
       </c>
       <c r="I4">
-        <v>0.1676547342089268</v>
+        <v>0.1416094457286952</v>
       </c>
       <c r="J4">
-        <v>0.1676547342089269</v>
+        <v>0.1416094457286952</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6911273333333333</v>
+        <v>0.7909786666666667</v>
       </c>
       <c r="N4">
-        <v>2.073382</v>
+        <v>2.372936</v>
       </c>
       <c r="O4">
-        <v>0.1874588794338899</v>
+        <v>0.156985022973489</v>
       </c>
       <c r="P4">
-        <v>0.1874588794338899</v>
+        <v>0.156985022973489</v>
       </c>
       <c r="Q4">
-        <v>0.2918787384195555</v>
+        <v>0.2553070844951111</v>
       </c>
       <c r="R4">
-        <v>2.626908645776</v>
+        <v>2.297763760456</v>
       </c>
       <c r="S4">
-        <v>0.03142836860659207</v>
+        <v>0.02223056209098226</v>
       </c>
       <c r="T4">
-        <v>0.03142836860659208</v>
+        <v>0.02223056209098226</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>5.624959</v>
       </c>
       <c r="I5">
-        <v>0.7443368783435028</v>
+        <v>0.8226066833587575</v>
       </c>
       <c r="J5">
-        <v>0.7443368783435029</v>
+        <v>0.8226066833587576</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.814284333333333</v>
+        <v>4.066173333333333</v>
       </c>
       <c r="N5">
-        <v>8.442852999999999</v>
+        <v>12.19852</v>
       </c>
       <c r="O5">
-        <v>0.7633363087964763</v>
+        <v>0.8070107842953054</v>
       </c>
       <c r="P5">
-        <v>0.7633363087964762</v>
+        <v>0.8070107842953055</v>
       </c>
       <c r="Q5">
-        <v>5.276744663114111</v>
+        <v>7.624019428964443</v>
       </c>
       <c r="R5">
-        <v>47.490701968027</v>
+        <v>68.61617486067999</v>
       </c>
       <c r="S5">
-        <v>0.5681793652158212</v>
+        <v>0.6638524647039108</v>
       </c>
       <c r="T5">
-        <v>0.5681793652158212</v>
+        <v>0.663852464703911</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>5.624959</v>
       </c>
       <c r="I6">
-        <v>0.7443368783435028</v>
+        <v>0.8226066833587575</v>
       </c>
       <c r="J6">
-        <v>0.7443368783435029</v>
+        <v>0.8226066833587576</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,10 +806,10 @@
         <v>0.5442279999999999</v>
       </c>
       <c r="O6">
-        <v>0.04920481176963387</v>
+        <v>0.03600419273120554</v>
       </c>
       <c r="P6">
-        <v>0.04920481176963386</v>
+        <v>0.03600419273120554</v>
       </c>
       <c r="Q6">
         <v>0.3401400207391111</v>
@@ -818,10 +818,10 @@
         <v>3.061260186652</v>
       </c>
       <c r="S6">
-        <v>0.03662495599208893</v>
+        <v>0.02961728956962648</v>
       </c>
       <c r="T6">
-        <v>0.03662495599208893</v>
+        <v>0.02961728956962648</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>5.624959</v>
       </c>
       <c r="I7">
-        <v>0.7443368783435028</v>
+        <v>0.8226066833587575</v>
       </c>
       <c r="J7">
-        <v>0.7443368783435029</v>
+        <v>0.8226066833587576</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.6911273333333333</v>
+        <v>0.7909786666666667</v>
       </c>
       <c r="N7">
-        <v>2.073382</v>
+        <v>2.372936</v>
       </c>
       <c r="O7">
-        <v>0.1874588794338899</v>
+        <v>0.156985022973489</v>
       </c>
       <c r="P7">
-        <v>0.1874588794338899</v>
+        <v>0.156985022973489</v>
       </c>
       <c r="Q7">
-        <v>1.295854304593111</v>
+        <v>1.483074189958222</v>
       </c>
       <c r="R7">
-        <v>11.662688741338</v>
+        <v>13.347667709624</v>
       </c>
       <c r="S7">
-        <v>0.1395325571355926</v>
+        <v>0.1291369290852201</v>
       </c>
       <c r="T7">
-        <v>0.1395325571355927</v>
+        <v>0.1291369290852202</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,22 +900,22 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.2216933333333333</v>
+        <v>0.081563</v>
       </c>
       <c r="H8">
-        <v>0.66508</v>
+        <v>0.244689</v>
       </c>
       <c r="I8">
-        <v>0.08800838744757017</v>
+        <v>0.03578387091254728</v>
       </c>
       <c r="J8">
-        <v>0.08800838744757018</v>
+        <v>0.03578387091254728</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.814284333333333</v>
+        <v>4.066173333333333</v>
       </c>
       <c r="N8">
-        <v>8.442852999999999</v>
+        <v>12.19852</v>
       </c>
       <c r="O8">
-        <v>0.7633363087964763</v>
+        <v>0.8070107842953054</v>
       </c>
       <c r="P8">
-        <v>0.7633363087964762</v>
+        <v>0.8070107842953055</v>
       </c>
       <c r="Q8">
-        <v>0.6239080748044444</v>
+        <v>0.3316492955866666</v>
       </c>
       <c r="R8">
-        <v>5.61517267324</v>
+        <v>2.98484366028</v>
       </c>
       <c r="S8">
-        <v>0.06717999761735835</v>
+        <v>0.02887796973025674</v>
       </c>
       <c r="T8">
-        <v>0.06717999761735835</v>
+        <v>0.02887796973025675</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,22 +962,22 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.2216933333333333</v>
+        <v>0.081563</v>
       </c>
       <c r="H9">
-        <v>0.66508</v>
+        <v>0.244689</v>
       </c>
       <c r="I9">
-        <v>0.08800838744757017</v>
+        <v>0.03578387091254728</v>
       </c>
       <c r="J9">
-        <v>0.08800838744757018</v>
+        <v>0.03578387091254728</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,22 +992,22 @@
         <v>0.5442279999999999</v>
       </c>
       <c r="O9">
-        <v>0.04920481176963387</v>
+        <v>0.03600419273120554</v>
       </c>
       <c r="P9">
-        <v>0.04920481176963386</v>
+        <v>0.03600419273120554</v>
       </c>
       <c r="Q9">
-        <v>0.04021723980444444</v>
+        <v>0.01479628945466666</v>
       </c>
       <c r="R9">
-        <v>0.36195515824</v>
+        <v>0.133166605092</v>
       </c>
       <c r="S9">
-        <v>0.004330436138506698</v>
+        <v>0.001288369385003932</v>
       </c>
       <c r="T9">
-        <v>0.004330436138506698</v>
+        <v>0.001288369385003932</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,22 +1024,22 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.2216933333333333</v>
+        <v>0.081563</v>
       </c>
       <c r="H10">
-        <v>0.66508</v>
+        <v>0.244689</v>
       </c>
       <c r="I10">
-        <v>0.08800838744757017</v>
+        <v>0.03578387091254728</v>
       </c>
       <c r="J10">
-        <v>0.08800838744757018</v>
+        <v>0.03578387091254728</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.6911273333333333</v>
+        <v>0.7909786666666667</v>
       </c>
       <c r="N10">
-        <v>2.073382</v>
+        <v>2.372936</v>
       </c>
       <c r="O10">
-        <v>0.1874588794338899</v>
+        <v>0.156985022973489</v>
       </c>
       <c r="P10">
-        <v>0.1874588794338899</v>
+        <v>0.156985022973489</v>
       </c>
       <c r="Q10">
-        <v>0.1532183222844444</v>
+        <v>0.06451459298933333</v>
       </c>
       <c r="R10">
-        <v>1.37896490056</v>
+        <v>0.580631336904</v>
       </c>
       <c r="S10">
-        <v>0.01649795369170513</v>
+        <v>0.0056175317972866</v>
       </c>
       <c r="T10">
-        <v>0.01649795369170513</v>
+        <v>0.0056175317972866</v>
       </c>
     </row>
   </sheetData>
